--- a/regular-expressions-excel-demo.xlsx
+++ b/regular-expressions-excel-demo.xlsx
@@ -1,37 +1,258 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28502"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55CB69ED-446F-4D75-BF8B-B04F7CAB1D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="functions" sheetId="1" r:id="rId1"/>
+    <sheet name="copilot" sheetId="2" r:id="rId2"/>
+    <sheet name="Analysis1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="4">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="9"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="4">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
+    <initialization>
+      <code xml:space="preserve">import numpy as np
+import pandas as pd
+import matplotlib.pyplot as plt
+import seaborn as sns
+import statsmodels as sm
+import excel
+import warnings
+warnings.simplefilter('ignore')
+excel.set_xl_scalar_conversion(excel.convert_to_scalar)
+excel.set_xl_array_conversion(excel.convert_to_dataframe)
+</code>
+    </initialization>
+  </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>samples_df=xl(%P2%, headers=True)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Extract valid email addresses from the 'data' column
+import re
+# Define the regular expression pattern for a valid email address with a capture group
+email_pattern = r'([a-zA-Z0-9._%%+-]+@[a-zA-Z0-9.-]+\.[a-zA-Z]{2,})'
+# Extract valid email addresses from the 'data' column
+valid_emails = samples_df['data'].str.extractall(email_pattern)
+# Drop the multi-index and reset the index
+valid_emails = valid_emails.reset_index(drop=True)
+valid_emails</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Create a new column with the first email address found in each row
+# Create a new column that pulls out the first email address found in each row of the dataset
+samples_df['first_email'] = samples_df['data'].str.extract(email_pattern)
+samples_df</code>
+    </pythonScript>
+  </pythonScripts>
+</python>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+  <si>
+    <t>Sample Data</t>
+  </si>
+  <si>
+    <t>john.doe@example.com</t>
+  </si>
+  <si>
+    <t>jane.smith@website.org</t>
+  </si>
+  <si>
+    <t>(123) 456-7890</t>
+  </si>
+  <si>
+    <t>123.456.7890</t>
+  </si>
+  <si>
+    <t>12-05-2023</t>
+  </si>
+  <si>
+    <t>11-16-2022</t>
+  </si>
+  <si>
+    <t>info@openai.com</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>Analysis Sheet</t>
+  </si>
+  <si>
+    <t>This sheet will include all Python code generated by Copilot.</t>
+  </si>
+  <si>
+    <t>Load data from copilot, samples</t>
+  </si>
+  <si>
+    <t>Preview</t>
+  </si>
+  <si>
+    <t>Extract valid email addresses from the 'data' column</t>
+  </si>
+  <si>
+    <t>Create a new column with the first email address found in each row</t>
+  </si>
+  <si>
+    <t>REGEXTEST (Valid email?)</t>
+  </si>
+  <si>
+    <t>REGEXEXTRACT (Extract Phone Number)</t>
+  </si>
+  <si>
+    <t>REGEXREPLACE (Replace Date with 'Date')</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF156082"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF156082"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,94 +267,385 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="3">
+  <a r="8" c="2">
+    <v t="s"/>
+    <v t="s">data</v>
+    <v>0</v>
+    <v t="s">john.doe@example.com</v>
+    <v>1</v>
+    <v t="s">jane.smith@website.org</v>
+    <v>2</v>
+    <v t="s">(123) 456-7890</v>
+    <v>3</v>
+    <v t="s">123.456.7890</v>
+    <v>4</v>
+    <v t="s">12-05-2023</v>
+    <v>5</v>
+    <v t="s">11-16-2022</v>
+    <v>6</v>
+    <v t="s">info@openai.com</v>
+  </a>
+  <a r="4" c="2">
+    <v t="s"/>
+    <v>0</v>
+    <v>0</v>
+    <v t="s">john.doe@example.com</v>
+    <v>1</v>
+    <v t="s">jane.smith@website.org</v>
+    <v>2</v>
+    <v t="s">info@openai.com</v>
+  </a>
+  <a r="8" c="3">
+    <v t="s"/>
+    <v t="s">data</v>
+    <v t="s">first_email</v>
+    <v>0</v>
+    <v t="s">john.doe@example.com</v>
+    <v t="s">john.doe@example.com</v>
+    <v>1</v>
+    <v t="s">jane.smith@website.org</v>
+    <v t="s">jane.smith@website.org</v>
+    <v>2</v>
+    <v t="s">(123) 456-7890</v>
+    <v t="r">6</v>
+    <v>3</v>
+    <v t="s">123.456.7890</v>
+    <v t="r">6</v>
+    <v>4</v>
+    <v t="s">12-05-2023</v>
+    <v t="r">6</v>
+    <v>5</v>
+    <v t="s">11-16-2022</v>
+    <v t="r">6</v>
+    <v>6</v>
+    <v t="s">info@openai.com</v>
+    <v t="s">info@openai.com</v>
+  </a>
+</arrayData>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="10">
+  <rv s="0">
+    <v>0</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>1</v>
+    <v>0</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">                     data
+0    john.doe@example.com
+1  jane.smith@website.org
+2          (123) 456-7890
+3            123.456.7890
+4              12-05-2023
+5              11-16-2022
+6         info@openai.com</v>
+    <v>1</v>
+    <v>2</v>
+    <v>3</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>5</v>
+    <v>3</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">                        0
+0    john.doe@example.com
+1  jane.smith@website.org
+2         info@openai.com</v>
+    <v>4</v>
+    <v>2</v>
+    <v>3</v>
+  </rv>
+  <rv s="3">
+    <fb>0</fb>
+    <v>8</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>7</v>
+    <v>7</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">                     data             first_email
+0    john.doe@example.com    john.doe@example.com
+1  jane.smith@website.org  jane.smith@website.org
+2          (123) 456-7890                     NaN
+3            123.456.7890                     NaN
+4 ...</v>
+    <v>8</v>
+    <v>2</v>
+    <v>3</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_ViewInfo" t="spb"/>
+    <k n="arrayPreview" t="r"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="preview" t="r"/>
+    <k n="_Provider" t="spb"/>
+    <k n="provider" t="spb"/>
+  </s>
+  <s t="_formattednumber">
+    <k n="_Format" t="spb"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="9">
+    <spb s="0">
+      <v>7</v>
+      <v>1</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
+      <v>Python provided by Anaconda</v>
+    </spb>
+    <spb s="3">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
+      <v>Python provided by Anaconda</v>
+    </spb>
+    <spb s="0">
+      <v>3</v>
+      <v>1</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>4</v>
+    </spb>
+    <spb s="0">
+      <v>7</v>
+      <v>2</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>6</v>
+    </spb>
+    <spb s="4">
+      <v>1</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+    <k n="headers" t="b"/>
+  </s>
+  <s>
+    <k n="ArrayCardInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="link" t="s"/>
+    <k n="logo" t="s"/>
+    <k n="name" t="s"/>
+  </s>
+  <s>
+    <k n="url" t="s"/>
+    <k n="logoUrl" t="s"/>
+    <k n="description" t="s"/>
+  </s>
+  <s>
+    <k n="_Self" t="i"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="1">
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="0">
+      <rpv i="0">0;-0;"nan"</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6CBE673C-2C2D-42EF-8B21-6355367B5172}" name="samples" displayName="samples" ref="A1:A8" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:A8" xr:uid="{6CBE673C-2C2D-42EF-8B21-6355367B5172}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{372A92FF-75F8-47FF-ACCC-D4505D2711B1}" name="data"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,145 +932,499 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.86328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Sample Data</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>REGEXTEST (Valid Email?)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>REGEXEXTRACT (Extract Phone Number)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>REGEXREPLACE (Replace Date with 'Date')</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>john.doe@example.com</t>
-        </is>
-      </c>
-      <c r="B2">
-        <f>REGEXTEST(A2, "^\w+([\.-]?\w+)*@\w+([\.-]?\w+)*(\.\w{2,3})+$")</f>
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="b">
+        <f>_xlfn.REGEXTEST(A2, "^\w+([\.-]?\w+)*@\w+([\.-]?\w+)*(\.\w{2,3})+$")</f>
+        <v>1</v>
+      </c>
+      <c r="C2" t="str" cm="1">
+        <f t="array" ref="C2">IFERROR(_xlfn.REGEXEXTRACT(A2, "\(?(\d{3})\)?[-. ]?(\d{3})[-. ]?(\d{4})"), "")</f>
         <v/>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>jane.smith@website.org</t>
-        </is>
-      </c>
-      <c r="B3">
-        <f>REGEXTEST(A3, "^\w+([\.-]?\w+)*@\w+([\.-]?\w+)*(\.\w{2,3})+$")</f>
+      <c r="D2" t="str">
+        <f>_xlfn.REGEXREPLACE(A2, "\d{2}-\d{2}-\d{4}", "Date")</f>
+        <v>john.doe@example.com</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="b">
+        <f t="shared" ref="B3:B8" si="0">_xlfn.REGEXTEST(A3, "^\w+([\.-]?\w+)*@\w+([\.-]?\w+)*(\.\w{2,3})+$")</f>
+        <v>1</v>
+      </c>
+      <c r="C3" t="str" cm="1">
+        <f t="array" ref="C3">IFERROR(_xlfn.REGEXEXTRACT(A3, "\(?(\d{3})\)?[-. ]?(\d{3})[-. ]?(\d{4})"), "")</f>
         <v/>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>(123) 456-7890</t>
-        </is>
-      </c>
-      <c r="B4">
-        <f>REGEXTEST(A4, "^\w+([\.-]?\w+)*@\w+([\.-]?\w+)*(\.\w{2,3})+$")</f>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D8" si="1">_xlfn.REGEXREPLACE(A3, "\d{2}-\d{2}-\d{4}", "Date")</f>
+        <v>jane.smith@website.org</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C4" t="str" cm="1">
+        <f t="array" ref="C4">IFERROR(_xlfn.REGEXEXTRACT(A4, "\(?(\d{3})\)?[-. ]?(\d{3})[-. ]?(\d{4})"), "")</f>
+        <v>(123) 456-7890</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>(123) 456-7890</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C5" t="str" cm="1">
+        <f t="array" ref="C5">IFERROR(_xlfn.REGEXEXTRACT(A5, "\(?(\d{3})\)?[-. ]?(\d{3})[-. ]?(\d{4})"), "")</f>
+        <v>123.456.7890</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>123.456.7890</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C6" t="str" cm="1">
+        <f t="array" ref="C6">IFERROR(_xlfn.REGEXEXTRACT(A6, "\(?(\d{3})\)?[-. ]?(\d{3})[-. ]?(\d{4})"), "")</f>
         <v/>
       </c>
-      <c r="C4">
-        <f>REGEXEXTRACT(A4, "\(?(\d{3})\)?[-. ]?(\d{3})[-. ]?(\d{4})")</f>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>Date</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C7" t="str" cm="1">
+        <f t="array" ref="C7">IFERROR(_xlfn.REGEXEXTRACT(A7, "\(?(\d{3})\)?[-. ]?(\d{3})[-. ]?(\d{4})"), "")</f>
         <v/>
       </c>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>123.456.7890</t>
-        </is>
-      </c>
-      <c r="B5">
-        <f>REGEXTEST(A5, "^\w+([\.-]?\w+)*@\w+([\.-]?\w+)*(\.\w{2,3})+$")</f>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>Date</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C8" t="str" cm="1">
+        <f t="array" ref="C8">IFERROR(_xlfn.REGEXEXTRACT(A8, "\(?(\d{3})\)?[-. ]?(\d{3})[-. ]?(\d{4})"), "")</f>
         <v/>
       </c>
-      <c r="C5">
-        <f>REGEXEXTRACT(A5, "\(?(\d{3})\)?[-. ]?(\d{3})[-. ]?(\d{4})")</f>
-        <v/>
-      </c>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>12-05-2023</t>
-        </is>
-      </c>
-      <c r="B6">
-        <f>REGEXTEST(A6, "^\w+([\.-]?\w+)*@\w+([\.-]?\w+)*(\.\w{2,3})+$")</f>
-        <v/>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6">
-        <f>REGEXREPLACE(A6, "\d{2}-\d{2}-\d{4}", "Date")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>11-16-2022</t>
-        </is>
-      </c>
-      <c r="B7">
-        <f>REGEXTEST(A7, "^\w+([\.-]?\w+)*@\w+([\.-]?\w+)*(\.\w{2,3})+$")</f>
-        <v/>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7">
-        <f>REGEXREPLACE(A7, "\d{2}-\d{2}-\d{4}", "Date")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>info@openai.com</t>
-        </is>
-      </c>
-      <c r="B8">
-        <f>REGEXTEST(A8, "^\w+([\.-]?\w+)*@\w+([\.-]?\w+)*(\.\w{2,3})+$")</f>
-        <v/>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>info@openai.com</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="str" cm="1">
+        <f t="array" ref="A10:A12">_xlfn._xlws.FILTER(A2:A8, _xlfn.REGEXTEST(A2:A8, "^\w+([\.-]?\w+)*@\w+([\.-]?\w+)*(\.\w{2,3})+$") = TRUE)</f>
+        <v>john.doe@example.com</v>
+      </c>
+      <c r="B10" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(A10)</f>
+        <v>=FILTER(A2:A8, REGEXTEST(A2:A8, "^\w+([\.-]?\w+)*@\w+([\.-]?\w+)*(\.\w{2,3})+$") = TRUE)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="str">
+        <v>jane.smith@website.org</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="str">
+        <v>info@openai.com</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7091E6-E128-4936-A30F-5EF3507E8E3B}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB91F07-3D15-4413-B4E7-A8BF9F6EA007}">
+  <dimension ref="A1:C40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="3" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="30.75" x14ac:dyDescent="0.9">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="e" cm="1" vm="1">
+        <f t="array" ref="A6">_xlfn._xlws.PY(0,1,samples[[#Headers],[#Data]])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="str" cm="1">
+        <f t="array" ref="A9:B16">IFERROR(_FV(A6,"arrayPreview"),_xlfn._DF_Python_str(A6))</f>
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <v>data</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" t="str">
+        <v>john.doe@example.com</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="str">
+        <v>jane.smith@website.org</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="str">
+        <v>(123) 456-7890</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="str">
+        <v>123.456.7890</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="str">
+        <v>12-05-2023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="str">
+        <v>11-16-2022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="str">
+        <v>info@openai.com</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="e" cm="1" vm="2">
+        <f t="array" ref="A20">_xlfn._xlws.PY(1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A22" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" t="str" cm="1">
+        <f t="array" ref="A23:B26">IFERROR(_FV(A20,"arrayPreview"),_xlfn._DF_Python_str(A20))</f>
+        <v/>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24" t="str">
+        <v>john.doe@example.com</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="str">
+        <v>jane.smith@website.org</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="str">
+        <v>info@openai.com</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" t="e" cm="1" vm="3">
+        <f t="array" ref="A30">_xlfn._xlws.PY(2,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A32" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" t="str" cm="1">
+        <f t="array" ref="A33:C40">IFERROR(_FV(A30,"arrayPreview"),_xlfn._DF_Python_str(A30))</f>
+        <v/>
+      </c>
+      <c r="B33" t="str">
+        <v>data</v>
+      </c>
+      <c r="C33" t="str">
+        <v>first_email</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34" t="str">
+        <v>john.doe@example.com</v>
+      </c>
+      <c r="C34" t="str">
+        <v>john.doe@example.com</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="str">
+        <v>jane.smith@website.org</v>
+      </c>
+      <c r="C35" t="str">
+        <v>jane.smith@website.org</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="str">
+        <v>(123) 456-7890</v>
+      </c>
+      <c r="C36" vm="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37" t="str">
+        <v>123.456.7890</v>
+      </c>
+      <c r="C37" vm="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38" t="str">
+        <v>12-05-2023</v>
+      </c>
+      <c r="C38" vm="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39" t="str">
+        <v>11-16-2022</v>
+      </c>
+      <c r="C39" vm="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40" t="str">
+        <v>info@openai.com</v>
+      </c>
+      <c r="C40" t="str">
+        <v>info@openai.com</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>